--- a/monitoring-iku-33-penyebut.xlsx
+++ b/monitoring-iku-33-penyebut.xlsx
@@ -332,7 +332,7 @@
     <t>Jurusan Teknik Kebumian</t>
   </si>
   <si>
-    <t>Juventa S.T., M.T.</t>
+    <t>Ir. Juventa S.T., M.T.</t>
   </si>
   <si>
     <t>Sarwo Sucitra Amin M.T.</t>
@@ -608,7 +608,7 @@
     <t>Zuli Rodhiyah S.Si., M.T.</t>
   </si>
   <si>
-    <t>Rizki Andre Handika ST, MT, Ph.D(Eng.)</t>
+    <t>Ir. Rizki Andre Handika ST, MT, Ph.D(Eng.)</t>
   </si>
   <si>
     <t>Ir. Freddy Ilfan S.T., M.T.</t>
